--- a/Data Embung/Perbandingan Ranking dengan metode lain.xlsx
+++ b/Data Embung/Perbandingan Ranking dengan metode lain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File Data\TA\Tugas Akhir - Latest\GitHub\Data Embung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE15E5EA-A003-480B-B8F7-5F6BA93A9487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBCE8E5-3E7C-4768-9267-391928D12212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0D25A53F-2977-4FD5-BBD6-FE3D1DB5F953}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
   <si>
     <t>Perbandingan ranking prioritas embung</t>
   </si>
@@ -172,6 +172,10 @@
   <si>
     <t>Fuzzy TOPSIS
 (Satria)</t>
+  </si>
+  <si>
+    <t>SAW
+(rena)</t>
   </si>
 </sst>
 </file>
@@ -265,9 +269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,6 +284,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A690A349-0989-42B2-B51F-5F1ED5081920}">
-  <dimension ref="B3:J17"/>
+  <dimension ref="B3:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,53 +614,56 @@
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -680,12 +685,13 @@
         <v>9</v>
       </c>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -707,12 +713,13 @@
         <v>5</v>
       </c>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -734,12 +741,13 @@
         <v>4</v>
       </c>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -761,12 +769,13 @@
         <v>6</v>
       </c>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -788,12 +797,13 @@
         <v>7</v>
       </c>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -815,12 +825,13 @@
         <v>8</v>
       </c>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -842,12 +853,13 @@
         <v>3</v>
       </c>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -869,61 +881,62 @@
         <v>10</v>
       </c>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data Embung/Perbandingan Ranking dengan metode lain.xlsx
+++ b/Data Embung/Perbandingan Ranking dengan metode lain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File Data\TA\Tugas Akhir - Latest\GitHub\Data Embung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBCE8E5-3E7C-4768-9267-391928D12212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBF68E9-4679-41F8-A158-AD1D4D15AEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0D25A53F-2977-4FD5-BBD6-FE3D1DB5F953}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>Perbandingan ranking prioritas embung</t>
   </si>
@@ -182,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +219,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +240,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -257,11 +269,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,15 +388,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -601,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A690A349-0989-42B2-B51F-5F1ED5081920}">
   <dimension ref="B3:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,6 +750,7 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
@@ -627,23 +766,23 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -659,51 +798,53 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="8"/>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -712,8 +853,10 @@
       <c r="I6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -740,8 +883,10 @@
       <c r="I7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -768,8 +913,10 @@
       <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -796,8 +943,10 @@
       <c r="I9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -824,8 +973,10 @@
       <c r="I10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="8"/>
+      <c r="J10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -852,8 +1003,10 @@
       <c r="I11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
@@ -880,8 +1033,10 @@
       <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>

--- a/Data Embung/Perbandingan Ranking dengan metode lain.xlsx
+++ b/Data Embung/Perbandingan Ranking dengan metode lain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File Data\TA\Tugas Akhir - Latest\GitHub\Data Embung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBF68E9-4679-41F8-A158-AD1D4D15AEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0332DF95-0C1B-41D3-88E4-94C9D899E7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0D25A53F-2977-4FD5-BBD6-FE3D1DB5F953}"/>
   </bookViews>
@@ -112,9 +112,6 @@
     <t>Perbandingan ranking prioritas embung</t>
   </si>
   <si>
-    <t>VIKOR</t>
-  </si>
-  <si>
     <t>Rank</t>
   </si>
   <si>
@@ -142,28 +139,13 @@
     <t>Gogodalem</t>
   </si>
   <si>
-    <t>PROMETHEE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jatikurung </t>
   </si>
   <si>
     <t xml:space="preserve">Dadapayam </t>
   </si>
   <si>
-    <t>FAHP</t>
-  </si>
-  <si>
-    <t>CPI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ngrawan </t>
-  </si>
-  <si>
-    <t>MOORA</t>
-  </si>
-  <si>
-    <t>MFEP</t>
   </si>
   <si>
     <t>Fuzy Topsis
@@ -176,6 +158,30 @@
   <si>
     <t>SAW
 (rena)</t>
+  </si>
+  <si>
+    <t>VIKOR
+(Ali)</t>
+  </si>
+  <si>
+    <t>CPI
+(Agus)</t>
+  </si>
+  <si>
+    <t>FAHP 
+(Rindhon)</t>
+  </si>
+  <si>
+    <t>PROMETHEE 
+(Prawito)</t>
+  </si>
+  <si>
+    <t>MOORA 
+(Farrel)</t>
+  </si>
+  <si>
+    <t>MFEP
+(Iin)</t>
   </si>
 </sst>
 </file>
@@ -371,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,9 +395,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,9 +407,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,6 +420,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -740,7 +743,7 @@
   <dimension ref="B3:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,76 +758,76 @@
   <sheetData>
     <row r="3" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>5</v>
+      <c r="D5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" s="6"/>
     </row>
@@ -832,29 +835,29 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" s="6"/>
     </row>
@@ -863,28 +866,28 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" s="6"/>
     </row>
@@ -893,28 +896,28 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8" s="6"/>
     </row>
@@ -923,28 +926,28 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="6"/>
     </row>
@@ -953,28 +956,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" s="6"/>
     </row>
@@ -983,28 +986,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11" s="6"/>
     </row>
@@ -1013,28 +1016,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="6"/>
     </row>
